--- a/src/output.xlsx
+++ b/src/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,490 +488,50 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>49362-UFIB</t>
+          <t>85241-PHGN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>49362-UFIB</t>
+          <t>85241-PHGN-XL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>商品color无货</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>49307-BLK</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>49307-BLK</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://www.patagonia.jp/product/black-hole-mlc-convertible-travel-backpack-45-liters/49307.html?dwvar_49307_color=BLK</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ALL</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>BLK</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>34100</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+          <t>https://www.patagonia.jp/product/mens-torrentshell-3-layer-rain-jacket/85241.html?dwvar_85241_color=PHGN</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PHGN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>19250</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>なし</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>あり</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>47890-NENA</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>47890-NENA</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://www.patagonia.jp/product/kids-refugito-daypack-12-liters/47890.html?dwvar_47890_color=NENA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ALL</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NENA</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6930</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>わずか</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>45385-CHVX</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>45385-CHVX-M</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://www.patagonia.jp/product/mens-capilene-cool-daily-graphic-shirt-lands/45385.html?dwvar_45385_color=CHVX</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CHVX</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5390</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>あり</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>41785-CRGY</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>41785-CRGY-M</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://www.patagonia.jp/product/mens-river-rambler-hybrid-sun-hoody/41785.html?dwvar_41785_color=CRGY</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CRGY</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>17600</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>わずか</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>わずか</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>37993-LISC</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>37993-LISC</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://www.patagonia.jp/product/breezefarer-mesh-cap/37993.html?dwvar_37993_color=LISC</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ALL</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LISC</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4235</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>わずか</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>29157-BLK</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>29157-BLK-L-XL</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://www.patagonia.jp/product/wavefarer-bucket-hat/29157.html?dwvar_29157_color=BLK</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>L/XL</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>BLK</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7260</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>あり</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>あり</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>あり</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>28818-SSLB</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>28818-SSLB</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://www.patagonia.jp/product/duckbill-running-cap/28818.html?dwvar_28818_color=SSLB</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ALL</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SSLB</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3696</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>あり</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>37993-GPUE</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>37993-GPUE</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://www.patagonia.jp/product/breezefarer-mesh-cap/37993.html?dwvar_37993_color=GPUE</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ALL</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>GPUE</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4235</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>あり</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>37993-CTMB</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>37993-CTMB</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://www.patagonia.jp/product/breezefarer-mesh-cap/37993.html?dwvar_37993_color=CTMB</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ALL</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>CTMB</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4235</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>あり</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>なし</t>
         </is>
